--- a/biology/Botanique/Alocasia/Alocasia.xlsx
+++ b/biology/Botanique/Alocasia/Alocasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alocasia est un genre de plantes vivaces rhizomateuses ou tubéreuses à larges feuilles de la famille des Aracées. Il en existe 79 espèces[1] originaires des régions allant de l'Asie tropicale et subtropicale à l'Australie orientale, et largement cultivées ailleurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alocasia est un genre de plantes vivaces rhizomateuses ou tubéreuses à larges feuilles de la famille des Aracées. Il en existe 79 espèces originaires des régions allant de l'Asie tropicale et subtropicale à l'Australie orientale, et largement cultivées ailleurs.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alocasia présente de grandes feuilles cordées ou sagittées d'une longueur de 20 à 90 cm sur de longs pétioles. Leurs fleurs aracées poussent au bout d'une courte tige et sont souvent cachées derrière les pétioles des feuilles. 
-La tige (un rhizome ) est comestible, mais contient des cristaux d'oxalate de calcium raphides ainsi que d'autres irritants (peut-être une peptidase )[2] susceptibles d'engourdir et  de provoquer un gonflement de la langue et du pharynx causant des difficultés respiratoires et de fortes douleurs de la gorge. Les parties inférieures contiennent plus de poison. Une ébullition prolongée avant de servir ou de transformer peut réduire les risques, et des fruits acides tels que le tamarin peuvent les dissoudre.
+La tige (un rhizome ) est comestible, mais contient des cristaux d'oxalate de calcium raphides ainsi que d'autres irritants (peut-être une peptidase ) susceptibles d'engourdir et  de provoquer un gonflement de la langue et du pharynx causant des difficultés respiratoires et de fortes douleurs de la gorge. Les parties inférieures contiennent plus de poison. Une ébullition prolongée avant de servir ou de transformer peut réduire les risques, et des fruits acides tels que le tamarin peuvent les dissoudre.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Alocasia sont des plantes tropicales de plus en plus populaires[3]. Ils sont généralement cultivés en pot et en serre, où ils bénéficient de conditions adaptées. Redoutant la pénombre, ils ont besoin d'un bon éclairage en intérieur et, comme toute autre plante tropicale, de nettoyages hebdomadaire des feuilles et d'une brumisation fréquente. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Alocasia sont des plantes tropicales de plus en plus populaires. Ils sont généralement cultivés en pot et en serre, où ils bénéficient de conditions adaptées. Redoutant la pénombre, ils ont besoin d'un bon éclairage en intérieur et, comme toute autre plante tropicale, de nettoyages hebdomadaire des feuilles et d'une brumisation fréquente. 
 Ils survivent rarement aux hivers froids ou à l'air sec dû au chauffage artificiel et doivent être protégées des acariens ou des attaques d'araignées rouges. 
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ci-dessous, les espèces acceptées classées sous Alocasia avec leurs noms communs (le cas échéant) et leurs aires de répartition: 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, les espèces acceptées classées sous Alocasia avec leurs noms communs (le cas échéant) et leurs aires de répartition: 
 Alocasia acuminata Schott: (Indonésie)
 Alocasia aequiloba N.E.Br.: (Nouvelle-Guinée)
 Alocasia alba Schott: (Sri Lanka)
@@ -655,13 +673,48 @@
 Alocasia suhirmaniana Yuzammi &amp; A.Hay: (Célèbes)
 Alocasia tandurusa 
 Alocasia venusta A.Hay: (Bornéo)
-Alocasia vietnamensis V.D.Nguyen: (Vietnam)[4]
+Alocasia vietnamensis V.D.Nguyen: (Vietnam)
 Alocasia wentii  Engl. &amp; K.Krause: Bouclier de Nouvelle-Guinée (Nouvelle-Guinée)
 Alocasia wongii  A.Hay: (Bornéo)
 Alocasia zebrina Schott ex Van Houtte: (Philippines)
-Hybrides
-Les espèces hybrides du genre Alocasia sont les suivantes (liste incomplète) : 
-A. × mortfontanensis André = A. longiloba × A. sanderiana [5] (syn. A. × amazonica[6] )</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alocasia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alocasia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les espèces hybrides du genre Alocasia sont les suivantes (liste incomplète) : 
+A. × mortfontanensis André = A. longiloba × A. sanderiana  (syn. A. × amazonica )</t>
         </is>
       </c>
     </row>
